--- a/COE_Library.xlsx
+++ b/COE_Library.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbjur\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egrstudent\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52204FDA-6920-4CCF-83FF-9B01B60AFBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585"/>
   </bookViews>
   <sheets>
     <sheet name="102 Innovation" sheetId="2" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="355">
   <si>
     <t>Title</t>
   </si>
@@ -1147,15 +1146,51 @@
   <si>
     <t>MacCracken, Calvin</t>
   </si>
+  <si>
+    <t>Inviting Disaster</t>
+  </si>
+  <si>
+    <t>Chiles, James</t>
+  </si>
+  <si>
+    <t>Understanding People</t>
+  </si>
+  <si>
+    <t>Crabb, Larry</t>
+  </si>
+  <si>
+    <t>The Creative Priority</t>
+  </si>
+  <si>
+    <t>Hirshberg, Jerry</t>
+  </si>
+  <si>
+    <t>The Psychology of Discovery and Invention</t>
+  </si>
+  <si>
+    <t>Csikszentmihalyi, Mihaly</t>
+  </si>
+  <si>
+    <t>Emotional Intelligence</t>
+  </si>
+  <si>
+    <t>Goleman, Daniel</t>
+  </si>
+  <si>
+    <t>The Knowledge-Creating Company</t>
+  </si>
+  <si>
+    <t>Gen. History &amp; Leadership+E21A2E2:E25</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1228,132 +1263,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1482,6 +1391,132 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1496,32 +1531,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C80D163-08AC-4449-87B9-AA02C1A42FA9}" name="Table3" displayName="Table3" ref="A1:G102" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
-  <autoFilter ref="A1:G102" xr:uid="{2C80D163-08AC-4449-87B9-AA02C1A42FA9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:G102" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:G102"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C5805C43-BB57-4222-B4AF-039A33A6ABC3}" name="Title" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{87526EB7-E534-49BD-8777-9FE5F9DB846D}" name="Author" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{8CC86AB9-90B8-4C3F-88A7-EF664B712BC4}" name="Year" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{3A220D51-EF15-4F53-ABF6-62A34440362A}" name="ID #" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{7A2AF1BF-FA48-450A-B37E-3245AD447C75}" name="Shelf" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{128E2383-F2E1-4B99-B154-D1B2684A436B}" name="LOC" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{50397255-08F7-423A-B49A-009558A86EC2}" name="Manually Add to GoodReads" dataDxfId="4"/>
+    <tableColumn id="1" name="Title" dataDxfId="15"/>
+    <tableColumn id="2" name="Author" dataDxfId="14"/>
+    <tableColumn id="3" name="Year" dataDxfId="13"/>
+    <tableColumn id="4" name="ID #" dataDxfId="12"/>
+    <tableColumn id="5" name="Shelf" dataDxfId="11"/>
+    <tableColumn id="6" name="LOC" dataDxfId="10"/>
+    <tableColumn id="7" name="Manually Add to GoodReads" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:G1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G1048576"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Title" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Author" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Year" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID #" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{59244217-95DE-4CD7-A971-11EDF8E51C2A}" name="Shelf" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{436E2086-A9D0-42F8-9169-90B74E6B0FC2}" name="LOC" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{5F9613C4-49C8-4E47-BCE1-6AE17FC607A8}" name="Manually Add to GoodReads" dataDxfId="9"/>
+    <tableColumn id="1" name="Title" dataDxfId="6"/>
+    <tableColumn id="2" name="Author" dataDxfId="5"/>
+    <tableColumn id="3" name="Year" dataDxfId="4"/>
+    <tableColumn id="4" name="ID #" dataDxfId="3"/>
+    <tableColumn id="9" name="Shelf" dataDxfId="2"/>
+    <tableColumn id="5" name="LOC" dataDxfId="1"/>
+    <tableColumn id="7" name="Manually Add to GoodReads" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1789,19 +1824,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9ACCA46-4588-40B5-94DF-40D09ECC7891}">
-  <dimension ref="A1:G102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="33.59765625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="35.36328125" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1824,7 +1859,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.4">
       <c r="A2" s="5" t="s">
         <v>313</v>
       </c>
@@ -1838,14 +1873,14 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>310</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30.4">
       <c r="A3" s="5" t="s">
         <v>314</v>
       </c>
@@ -1868,7 +1903,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="45.4">
       <c r="A4" s="5" t="s">
         <v>318</v>
       </c>
@@ -1889,7 +1924,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.4">
       <c r="A5" s="5" t="s">
         <v>319</v>
       </c>
@@ -1910,7 +1945,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30.4">
       <c r="A6" s="5" t="s">
         <v>321</v>
       </c>
@@ -1933,7 +1968,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.4">
       <c r="A7" s="5" t="s">
         <v>323</v>
       </c>
@@ -1956,7 +1991,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.4">
       <c r="A8" s="5" t="s">
         <v>325</v>
       </c>
@@ -1977,7 +2012,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30.4">
       <c r="A9" s="5" t="s">
         <v>327</v>
       </c>
@@ -1998,7 +2033,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30.4">
       <c r="A10" s="5" t="s">
         <v>329</v>
       </c>
@@ -2019,7 +2054,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="30.4">
       <c r="A11" s="5" t="s">
         <v>330</v>
       </c>
@@ -2042,7 +2077,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="45.4">
       <c r="A12" s="5" t="s">
         <v>333</v>
       </c>
@@ -2065,7 +2100,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30.4">
       <c r="A13" s="5" t="s">
         <v>335</v>
       </c>
@@ -2086,7 +2121,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.4">
       <c r="A14" s="5" t="s">
         <v>337</v>
       </c>
@@ -2107,7 +2142,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.4">
       <c r="A15" s="5" t="s">
         <v>339</v>
       </c>
@@ -2128,7 +2163,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.4">
       <c r="A16" s="5" t="s">
         <v>341</v>
       </c>
@@ -2149,10 +2184,16 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+    <row r="17" spans="1:7" ht="15.4">
+      <c r="A17" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2013</v>
+      </c>
       <c r="D17" s="6">
         <v>16</v>
       </c>
@@ -2164,111 +2205,147 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+    <row r="18" spans="1:7" ht="15.4">
+      <c r="A18" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1999</v>
+      </c>
       <c r="D18" s="6">
         <v>17</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>310</v>
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+    <row r="19" spans="1:7" ht="30.4">
+      <c r="A19" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1996</v>
+      </c>
       <c r="D19" s="6">
         <v>18</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="F19" s="1" t="s">
         <v>310</v>
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+    <row r="20" spans="1:7" ht="15.4">
+      <c r="A20" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2006</v>
+      </c>
       <c r="D20" s="6">
         <v>19</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>310</v>
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:7" ht="15.4">
+      <c r="A21" s="5" t="s">
+        <v>353</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="6">
         <v>20</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>310</v>
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.4">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="6">
         <v>21</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>310</v>
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15.4">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="6">
         <v>22</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="F23" s="1" t="s">
         <v>310</v>
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15.4">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="6">
         <v>23</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>310</v>
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15.4">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="6">
         <v>24</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>310</v>
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15.4">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2281,7 +2358,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15.4">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2294,7 +2371,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15.4">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2307,7 +2384,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15.4">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2320,7 +2397,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="15.4">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2331,7 +2408,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="15.4">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2342,7 +2419,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="15.4">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2353,7 +2430,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15.4">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2364,7 +2441,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15.4">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2375,7 +2452,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="15.4">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2386,7 +2463,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="15.4">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2397,7 +2474,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15.4">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2408,7 +2485,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15.4">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2419,7 +2496,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15.4">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2430,7 +2507,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="15.4">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2441,7 +2518,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15.4">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2452,7 +2529,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="15.4">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2463,7 +2540,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="15.4">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2474,7 +2551,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="15.4">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2485,7 +2562,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="15.4">
       <c r="A45" s="5"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2496,7 +2573,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="15.4">
       <c r="A46" s="5"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2507,7 +2584,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="15.4">
       <c r="A47" s="5"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2518,7 +2595,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="15.4">
       <c r="A48" s="5"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2529,7 +2606,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="15.4">
       <c r="A49" s="5"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2540,7 +2617,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15.4">
       <c r="A50" s="5"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2551,7 +2628,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="15.4">
       <c r="A51" s="5"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2562,7 +2639,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="15.4">
       <c r="A52" s="5"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2573,7 +2650,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="15.4">
       <c r="A53" s="5"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2584,7 +2661,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="15.4">
       <c r="A54" s="5"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2595,7 +2672,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="15.4">
       <c r="A55" s="5"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2606,7 +2683,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="15.4">
       <c r="A56" s="5"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2617,7 +2694,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="15.4">
       <c r="A57" s="5"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2628,7 +2705,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="15.4">
       <c r="A58" s="5"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2639,7 +2716,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="15.4">
       <c r="A59" s="5"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2650,7 +2727,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="15.4">
       <c r="A60" s="5"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2661,7 +2738,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="15.4">
       <c r="A61" s="5"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2672,7 +2749,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="15.4">
       <c r="A62" s="5"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2683,7 +2760,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="15.4">
       <c r="A63" s="5"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2694,7 +2771,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="15.4">
       <c r="A64" s="5"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2705,7 +2782,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="15.4">
       <c r="A65" s="5"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2716,7 +2793,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="15.4">
       <c r="A66" s="5"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2727,7 +2804,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="15.4">
       <c r="A67" s="5"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2738,7 +2815,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="15.4">
       <c r="A68" s="5"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2749,7 +2826,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="15.4">
       <c r="A69" s="5"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2760,7 +2837,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="15.4">
       <c r="A70" s="5"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2771,7 +2848,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="15.4">
       <c r="A71" s="5"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2782,7 +2859,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="15.4">
       <c r="A72" s="5"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2793,7 +2870,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="15.4">
       <c r="A73" s="5"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2804,7 +2881,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="15.4">
       <c r="A74" s="5"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2815,7 +2892,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="15.4">
       <c r="A75" s="5"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2826,7 +2903,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="15.4">
       <c r="A76" s="5"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2837,7 +2914,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="15.4">
       <c r="A77" s="5"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2848,7 +2925,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="15.4">
       <c r="A78" s="5"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2859,7 +2936,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="15.4">
       <c r="A79" s="5"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2870,7 +2947,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="15.4">
       <c r="A80" s="5"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2881,7 +2958,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="15.4">
       <c r="A81" s="5"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2892,7 +2969,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="15.4">
       <c r="A82" s="5"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2903,7 +2980,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="15.4">
       <c r="A83" s="5"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2914,7 +2991,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="15.4">
       <c r="A84" s="5"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2925,7 +3002,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="15.4">
       <c r="A85" s="5"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2936,7 +3013,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="15.4">
       <c r="A86" s="5"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2947,7 +3024,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="15.4">
       <c r="A87" s="5"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2958,7 +3035,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="15.4">
       <c r="A88" s="5"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2969,7 +3046,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="15.4">
       <c r="A89" s="5"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2980,7 +3057,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="15.4">
       <c r="A90" s="5"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2991,7 +3068,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="15.4">
       <c r="A91" s="5"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3002,7 +3079,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="15.4">
       <c r="A92" s="5"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3013,7 +3090,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="15.4">
       <c r="A93" s="5"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3024,7 +3101,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="15.4">
       <c r="A94" s="5"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3035,7 +3112,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="15.4">
       <c r="A95" s="5"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3046,7 +3123,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="15.4">
       <c r="A96" s="5"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3057,7 +3134,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="15.4">
       <c r="A97" s="5"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3068,7 +3145,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="15.4">
       <c r="A98" s="5"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3079,7 +3156,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="15.4">
       <c r="A99" s="5"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3090,7 +3167,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" ht="15.4">
       <c r="A100" s="5"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3101,7 +3178,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="15.4">
       <c r="A101" s="5"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3112,7 +3189,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" ht="15.4">
       <c r="A102" s="5"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3122,6 +3199,26 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
+    </row>
+    <row r="116" spans="1:6" ht="15.4">
+      <c r="A116" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D116" s="6">
+        <v>16</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>310</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3132,23 +3229,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.54296875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="33.53125" defaultRowHeight="15.4"/>
   <cols>
-    <col min="1" max="1" width="50.7265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.54296875" style="2"/>
-    <col min="4" max="4" width="33.54296875" style="3"/>
-    <col min="5" max="5" width="33.54296875" style="1"/>
-    <col min="6" max="6" width="33.54296875" style="2"/>
-    <col min="7" max="7" width="36.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="50.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.73046875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.53125" style="2"/>
+    <col min="4" max="4" width="33.53125" style="3"/>
+    <col min="5" max="5" width="33.53125" style="1"/>
+    <col min="6" max="6" width="33.53125" style="2"/>
+    <col min="7" max="7" width="36.265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3171,7 +3268,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3191,7 +3288,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3211,7 +3308,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -3231,7 +3328,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -3251,7 +3348,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -3271,7 +3368,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -3291,7 +3388,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -3311,7 +3408,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -3334,7 +3431,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -3354,7 +3451,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -3377,7 +3474,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -3397,7 +3494,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -3417,7 +3514,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -3437,7 +3534,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -3457,7 +3554,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -3477,7 +3574,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
@@ -3497,7 +3594,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -3520,7 +3617,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15">
       <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
@@ -3540,7 +3637,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
@@ -3563,7 +3660,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
@@ -3583,7 +3680,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="30">
       <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
@@ -3603,7 +3700,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="30">
       <c r="A23" s="4" t="s">
         <v>302</v>
       </c>
@@ -3626,7 +3723,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
@@ -3646,7 +3743,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15">
       <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
@@ -3669,7 +3766,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15">
       <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
@@ -3689,7 +3786,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15">
       <c r="A27" s="4" t="s">
         <v>53</v>
       </c>
@@ -3709,7 +3806,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="30">
       <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
@@ -3729,7 +3826,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="30">
       <c r="A29" s="4" t="s">
         <v>55</v>
       </c>
@@ -3749,7 +3846,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="30">
       <c r="A30" s="4" t="s">
         <v>303</v>
       </c>
@@ -3772,7 +3869,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="30">
       <c r="A31" s="4" t="s">
         <v>57</v>
       </c>
@@ -3792,7 +3889,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="30">
       <c r="A32" s="4" t="s">
         <v>304</v>
       </c>
@@ -3812,7 +3909,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="30">
       <c r="A33" s="4" t="s">
         <v>59</v>
       </c>
@@ -3832,7 +3929,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15">
       <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
@@ -3852,7 +3949,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="30">
       <c r="A35" s="4" t="s">
         <v>61</v>
       </c>
@@ -3875,7 +3972,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="30">
       <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
@@ -3895,7 +3992,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15">
       <c r="A37" s="4" t="s">
         <v>64</v>
       </c>
@@ -3915,7 +4012,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15">
       <c r="A38" s="4" t="s">
         <v>66</v>
       </c>
@@ -3935,7 +4032,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15">
       <c r="A39" s="4" t="s">
         <v>69</v>
       </c>
@@ -3955,7 +4052,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="15">
       <c r="A40" s="4" t="s">
         <v>305</v>
       </c>
@@ -3975,7 +4072,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15">
       <c r="A41" s="4" t="s">
         <v>70</v>
       </c>
@@ -3995,7 +4092,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="15">
       <c r="A42" s="4" t="s">
         <v>71</v>
       </c>
@@ -4015,7 +4112,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="15">
       <c r="A43" s="4" t="s">
         <v>73</v>
       </c>
@@ -4038,7 +4135,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="15">
       <c r="A44" s="4" t="s">
         <v>74</v>
       </c>
@@ -4058,7 +4155,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="15">
       <c r="A45" s="4" t="s">
         <v>76</v>
       </c>
@@ -4078,7 +4175,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="15">
       <c r="A46" s="4" t="s">
         <v>78</v>
       </c>
@@ -4098,7 +4195,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="30">
       <c r="A47" s="4" t="s">
         <v>306</v>
       </c>
@@ -4118,7 +4215,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="15">
       <c r="A48" s="4" t="s">
         <v>80</v>
       </c>
@@ -4138,7 +4235,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="30">
       <c r="A49" s="4" t="s">
         <v>83</v>
       </c>
@@ -4161,7 +4258,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15">
       <c r="A50" s="4" t="s">
         <v>307</v>
       </c>
@@ -4181,7 +4278,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="15">
       <c r="A51" s="4" t="s">
         <v>86</v>
       </c>
@@ -4201,7 +4298,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="15">
       <c r="A52" s="4" t="s">
         <v>87</v>
       </c>
@@ -4221,7 +4318,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="30">
       <c r="A53" s="4" t="s">
         <v>89</v>
       </c>
@@ -4241,7 +4338,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="30">
       <c r="A54" s="4" t="s">
         <v>89</v>
       </c>
@@ -4261,7 +4358,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="30">
       <c r="A55" s="4" t="s">
         <v>91</v>
       </c>
@@ -4281,7 +4378,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="15">
       <c r="A56" s="4" t="s">
         <v>93</v>
       </c>
@@ -4301,7 +4398,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="30">
       <c r="A57" s="4" t="s">
         <v>95</v>
       </c>
@@ -4321,7 +4418,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="30">
       <c r="A58" s="4" t="s">
         <v>97</v>
       </c>
@@ -4341,7 +4438,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="15">
       <c r="A59" s="4" t="s">
         <v>99</v>
       </c>
@@ -4364,7 +4461,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="30">
       <c r="A60" s="4" t="s">
         <v>103</v>
       </c>
@@ -4384,7 +4481,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="30">
       <c r="A61" s="4" t="s">
         <v>102</v>
       </c>
@@ -4404,7 +4501,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="15">
       <c r="A62" s="4" t="s">
         <v>95</v>
       </c>
@@ -4424,7 +4521,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="15">
       <c r="A63" s="4" t="s">
         <v>106</v>
       </c>
@@ -4447,7 +4544,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="15">
       <c r="A64" s="4" t="s">
         <v>108</v>
       </c>
@@ -4467,7 +4564,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="15">
       <c r="A65" s="4" t="s">
         <v>110</v>
       </c>
@@ -4487,7 +4584,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="15">
       <c r="A66" s="4" t="s">
         <v>112</v>
       </c>
@@ -4507,7 +4604,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="15">
       <c r="A67" s="4" t="s">
         <v>114</v>
       </c>
@@ -4527,7 +4624,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="30">
       <c r="A68" s="4" t="s">
         <v>117</v>
       </c>
@@ -4547,7 +4644,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="15">
       <c r="A69" s="4" t="s">
         <v>119</v>
       </c>
@@ -4567,7 +4664,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="30">
       <c r="A70" s="4" t="s">
         <v>121</v>
       </c>
@@ -4587,7 +4684,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="30">
       <c r="A71" s="4" t="s">
         <v>121</v>
       </c>
@@ -4607,7 +4704,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="15">
       <c r="A72" s="4" t="s">
         <v>123</v>
       </c>
@@ -4627,7 +4724,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="15">
       <c r="A73" s="4" t="s">
         <v>125</v>
       </c>
@@ -4647,7 +4744,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="30">
       <c r="A74" s="4" t="s">
         <v>127</v>
       </c>
@@ -4667,7 +4764,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="30">
       <c r="A75" s="4" t="s">
         <v>129</v>
       </c>
@@ -4690,7 +4787,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="15">
       <c r="A76" s="4" t="s">
         <v>131</v>
       </c>
@@ -4710,7 +4807,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="15">
       <c r="A77" s="4" t="s">
         <v>133</v>
       </c>
@@ -4730,7 +4827,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="15">
       <c r="A78" s="4" t="s">
         <v>136</v>
       </c>
@@ -4750,7 +4847,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="15">
       <c r="A79" s="4" t="s">
         <v>138</v>
       </c>
@@ -4770,7 +4867,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="30">
       <c r="A80" s="4" t="s">
         <v>140</v>
       </c>
@@ -4790,7 +4887,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="15">
       <c r="A81" s="4" t="s">
         <v>142</v>
       </c>
@@ -4810,7 +4907,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="15">
       <c r="A82" s="4" t="s">
         <v>144</v>
       </c>
@@ -4830,7 +4927,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="15">
       <c r="A83" s="4" t="s">
         <v>146</v>
       </c>
@@ -4853,7 +4950,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="15">
       <c r="A84" s="4" t="s">
         <v>148</v>
       </c>
@@ -4873,7 +4970,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="15">
       <c r="A85" s="4" t="s">
         <v>151</v>
       </c>
@@ -4893,7 +4990,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="15">
       <c r="A86" s="4" t="s">
         <v>153</v>
       </c>
@@ -4913,7 +5010,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="15">
       <c r="A87" s="4" t="s">
         <v>155</v>
       </c>
@@ -4936,7 +5033,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="15">
       <c r="A88" s="4" t="s">
         <v>157</v>
       </c>
@@ -4956,7 +5053,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="30">
       <c r="A89" s="4" t="s">
         <v>159</v>
       </c>
@@ -4976,7 +5073,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="15">
       <c r="A90" s="4" t="s">
         <v>161</v>
       </c>
@@ -4996,7 +5093,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="15">
       <c r="A91" s="4" t="s">
         <v>163</v>
       </c>
@@ -5016,7 +5113,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="15">
       <c r="A92" s="4" t="s">
         <v>165</v>
       </c>
@@ -5036,7 +5133,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="30">
       <c r="A93" s="4" t="s">
         <v>167</v>
       </c>
@@ -5056,7 +5153,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="15">
       <c r="A94" s="4" t="s">
         <v>169</v>
       </c>
@@ -5076,7 +5173,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="15">
       <c r="A95" s="4" t="s">
         <v>171</v>
       </c>
@@ -5099,7 +5196,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="30">
       <c r="A96" s="4" t="s">
         <v>173</v>
       </c>
@@ -5119,7 +5216,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="15">
       <c r="A97" s="4" t="s">
         <v>175</v>
       </c>
@@ -5139,7 +5236,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="15">
       <c r="A98" s="4" t="s">
         <v>177</v>
       </c>
@@ -5159,7 +5256,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="30">
       <c r="A99" s="4" t="s">
         <v>179</v>
       </c>
@@ -5179,7 +5276,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="15">
       <c r="A100" s="4" t="s">
         <v>181</v>
       </c>
@@ -5199,7 +5296,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="15">
       <c r="A101" s="4" t="s">
         <v>183</v>
       </c>
@@ -5219,7 +5316,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="15">
       <c r="A102" s="4" t="s">
         <v>185</v>
       </c>
@@ -5239,7 +5336,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="15">
       <c r="A103" s="4" t="s">
         <v>187</v>
       </c>
@@ -5259,7 +5356,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" ht="15">
       <c r="A104" s="4" t="s">
         <v>189</v>
       </c>
@@ -5279,7 +5376,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" ht="30">
       <c r="A105" s="4" t="s">
         <v>191</v>
       </c>
@@ -5299,7 +5396,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" ht="15">
       <c r="A106" s="4" t="s">
         <v>193</v>
       </c>
@@ -5319,7 +5416,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" ht="30">
       <c r="A107" s="4" t="s">
         <v>195</v>
       </c>
@@ -5339,7 +5436,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" ht="15">
       <c r="A108" s="4" t="s">
         <v>197</v>
       </c>
@@ -5359,7 +5456,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" ht="15">
       <c r="A109" s="4" t="s">
         <v>198</v>
       </c>
@@ -5379,7 +5476,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" ht="15">
       <c r="A110" s="4" t="s">
         <v>200</v>
       </c>
@@ -5399,7 +5496,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" ht="15">
       <c r="A111" s="4" t="s">
         <v>202</v>
       </c>
@@ -5419,7 +5516,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" ht="15">
       <c r="A112" s="4" t="s">
         <v>204</v>
       </c>
@@ -5439,7 +5536,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" ht="15">
       <c r="A113" s="4" t="s">
         <v>206</v>
       </c>
@@ -5459,7 +5556,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" ht="15">
       <c r="A114" s="4" t="s">
         <v>208</v>
       </c>
@@ -5482,7 +5579,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" ht="30">
       <c r="A115" s="4" t="s">
         <v>210</v>
       </c>
@@ -5502,7 +5599,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" ht="15">
       <c r="A116" s="4" t="s">
         <v>212</v>
       </c>
@@ -5525,7 +5622,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" ht="15">
       <c r="A117" s="4" t="s">
         <v>214</v>
       </c>
@@ -5548,7 +5645,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" ht="15">
       <c r="A118" s="4" t="s">
         <v>216</v>
       </c>
@@ -5571,7 +5668,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" ht="15">
       <c r="A119" s="4" t="s">
         <v>218</v>
       </c>
@@ -5591,7 +5688,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" ht="15">
       <c r="A120" s="4" t="s">
         <v>220</v>
       </c>
@@ -5611,7 +5708,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" ht="15">
       <c r="A121" s="4" t="s">
         <v>222</v>
       </c>
@@ -5631,7 +5728,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" ht="30">
       <c r="A122" s="4" t="s">
         <v>223</v>
       </c>
@@ -5651,7 +5748,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" ht="15">
       <c r="A123" s="4" t="s">
         <v>226</v>
       </c>
@@ -5671,7 +5768,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" ht="15">
       <c r="A124" s="4" t="s">
         <v>227</v>
       </c>
@@ -5691,7 +5788,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" ht="15">
       <c r="A125" s="4" t="s">
         <v>229</v>
       </c>
@@ -5711,7 +5808,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" ht="15">
       <c r="A126" s="4" t="s">
         <v>231</v>
       </c>
@@ -5731,7 +5828,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" ht="15">
       <c r="A127" s="4" t="s">
         <v>233</v>
       </c>
@@ -5751,7 +5848,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" ht="15">
       <c r="A128" s="4" t="s">
         <v>235</v>
       </c>
@@ -5771,7 +5868,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" ht="30">
       <c r="A129" s="4" t="s">
         <v>237</v>
       </c>
@@ -5791,7 +5888,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" ht="15">
       <c r="A130" s="4" t="s">
         <v>239</v>
       </c>
@@ -5811,7 +5908,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" ht="15">
       <c r="A131" s="4" t="s">
         <v>241</v>
       </c>
@@ -5831,7 +5928,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" ht="30">
       <c r="A132" s="4" t="s">
         <v>243</v>
       </c>
@@ -5851,7 +5948,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" ht="15">
       <c r="A133" s="4" t="s">
         <v>245</v>
       </c>
@@ -5871,7 +5968,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" ht="15">
       <c r="A134" s="4" t="s">
         <v>247</v>
       </c>
@@ -5891,7 +5988,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" ht="15">
       <c r="A135" s="4" t="s">
         <v>249</v>
       </c>
@@ -5911,7 +6008,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" ht="30">
       <c r="A136" s="4" t="s">
         <v>251</v>
       </c>
@@ -5931,7 +6028,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" ht="15">
       <c r="A137" s="4" t="s">
         <v>253</v>
       </c>
@@ -5951,7 +6048,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" ht="30">
       <c r="A138" s="4" t="s">
         <v>255</v>
       </c>
@@ -5971,7 +6068,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" ht="15">
       <c r="A139" s="4" t="s">
         <v>257</v>
       </c>
@@ -5994,7 +6091,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" ht="15">
       <c r="A140" s="4" t="s">
         <v>259</v>
       </c>
@@ -6014,7 +6111,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" ht="15">
       <c r="A141" s="4" t="s">
         <v>261</v>
       </c>
@@ -6034,7 +6131,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" ht="30">
       <c r="A142" s="4" t="s">
         <v>262</v>
       </c>
@@ -6057,7 +6154,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" ht="15">
       <c r="A143" s="4" t="s">
         <v>265</v>
       </c>
@@ -6077,7 +6174,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" ht="15">
       <c r="A144" s="4" t="s">
         <v>301</v>
       </c>
@@ -6097,7 +6194,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" ht="15">
       <c r="A145" s="4" t="s">
         <v>229</v>
       </c>
@@ -6117,7 +6214,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" ht="30">
       <c r="A146" s="4" t="s">
         <v>268</v>
       </c>
@@ -6137,7 +6234,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" ht="30">
       <c r="A147" s="4" t="s">
         <v>271</v>
       </c>
@@ -6157,7 +6254,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" ht="30">
       <c r="A148" s="4" t="s">
         <v>273</v>
       </c>
@@ -6177,7 +6274,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7">
       <c r="A149" s="4" t="s">
         <v>275</v>
       </c>
@@ -6200,7 +6297,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" ht="30">
       <c r="A150" s="4" t="s">
         <v>277</v>
       </c>
@@ -6220,7 +6317,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7">
       <c r="A151" s="4" t="s">
         <v>279</v>
       </c>
@@ -6240,7 +6337,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7">
       <c r="A152" s="4" t="s">
         <v>280</v>
       </c>
@@ -6263,7 +6360,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7">
       <c r="A153" s="4" t="s">
         <v>282</v>
       </c>
@@ -6283,7 +6380,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" ht="30">
       <c r="A154" s="4" t="s">
         <v>284</v>
       </c>
@@ -6303,7 +6400,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" ht="30">
       <c r="A155" s="4" t="s">
         <v>286</v>
       </c>
@@ -6323,7 +6420,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7">
       <c r="A156" s="4" t="s">
         <v>288</v>
       </c>
@@ -6343,7 +6440,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7">
       <c r="A157" s="4" t="s">
         <v>290</v>
       </c>
@@ -6363,7 +6460,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7">
       <c r="A158" s="4" t="s">
         <v>292</v>
       </c>
@@ -6386,7 +6483,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7">
       <c r="A159" s="4" t="s">
         <v>280</v>
       </c>
@@ -6406,7 +6503,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7">
       <c r="A160" s="4" t="s">
         <v>294</v>
       </c>
@@ -6429,7 +6526,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6">
       <c r="A161" s="4" t="s">
         <v>296</v>
       </c>
@@ -6449,7 +6546,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6">
       <c r="A162" s="4" t="s">
         <v>296</v>
       </c>
@@ -6469,7 +6566,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6">
       <c r="A163" s="4" t="s">
         <v>298</v>
       </c>

--- a/COE_Library.xlsx
+++ b/COE_Library.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="102 Innovation" sheetId="2" r:id="rId1"/>
-    <sheet name="201 EM &amp; RF" sheetId="1" r:id="rId2"/>
+    <sheet name="Dr. Xu's 102 Books" sheetId="3" r:id="rId2"/>
+    <sheet name="201 EM &amp; RF" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="365">
   <si>
     <t>Title</t>
   </si>
@@ -1182,6 +1183,36 @@
   <si>
     <t>Gen. History &amp; Leadership+E21A2E2:E25</t>
   </si>
+  <si>
+    <t>Industrial Electronics and Control</t>
+  </si>
+  <si>
+    <t>I-1</t>
+  </si>
+  <si>
+    <t>Basic Feedback Control System Design</t>
+  </si>
+  <si>
+    <t>Savant, C.J.</t>
+  </si>
+  <si>
+    <t>Engineers' Relay Handbook</t>
+  </si>
+  <si>
+    <t>National Association of Relay Manufacturers</t>
+  </si>
+  <si>
+    <t>Analytical Design of Linear Feedback Controls</t>
+  </si>
+  <si>
+    <t>Newton, George &amp; Gould, Leonard &amp; Kaiser, James</t>
+  </si>
+  <si>
+    <t>Nickel-Cadmium Battery Application Engineering Handbook</t>
+  </si>
+  <si>
+    <t>General Electric</t>
+  </si>
 </sst>
 </file>
 
@@ -1190,7 +1221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1217,16 +1248,28 @@
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1234,11 +1277,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1258,11 +1310,199 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1531,32 +1771,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:G102" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:G102" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:G102"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Title" dataDxfId="15"/>
-    <tableColumn id="2" name="Author" dataDxfId="14"/>
-    <tableColumn id="3" name="Year" dataDxfId="13"/>
-    <tableColumn id="4" name="ID #" dataDxfId="12"/>
-    <tableColumn id="5" name="Shelf" dataDxfId="11"/>
-    <tableColumn id="6" name="LOC" dataDxfId="10"/>
-    <tableColumn id="7" name="Manually Add to GoodReads" dataDxfId="9"/>
+    <tableColumn id="1" name="Title" dataDxfId="26"/>
+    <tableColumn id="2" name="Author" dataDxfId="25"/>
+    <tableColumn id="3" name="Year" dataDxfId="24"/>
+    <tableColumn id="4" name="ID #" dataDxfId="23"/>
+    <tableColumn id="5" name="Shelf" dataDxfId="22"/>
+    <tableColumn id="6" name="LOC" dataDxfId="21"/>
+    <tableColumn id="7" name="Manually Add to GoodReads" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G27" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="A1:G27"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Title" dataDxfId="8"/>
+    <tableColumn id="2" name="Author" dataDxfId="7"/>
+    <tableColumn id="3" name="Year" dataDxfId="6"/>
+    <tableColumn id="4" name="ID #" dataDxfId="5"/>
+    <tableColumn id="5" name="Shelf" dataDxfId="4"/>
+    <tableColumn id="6" name="LOC" dataDxfId="3"/>
+    <tableColumn id="7" name="Manually Add to GoodReads" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:G1048576"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Title" dataDxfId="6"/>
-    <tableColumn id="2" name="Author" dataDxfId="5"/>
-    <tableColumn id="3" name="Year" dataDxfId="4"/>
-    <tableColumn id="4" name="ID #" dataDxfId="3"/>
-    <tableColumn id="9" name="Shelf" dataDxfId="2"/>
-    <tableColumn id="5" name="LOC" dataDxfId="1"/>
-    <tableColumn id="7" name="Manually Add to GoodReads" dataDxfId="0"/>
+    <tableColumn id="1" name="Title" dataDxfId="17"/>
+    <tableColumn id="2" name="Author" dataDxfId="16"/>
+    <tableColumn id="3" name="Year" dataDxfId="15"/>
+    <tableColumn id="4" name="ID #" dataDxfId="14"/>
+    <tableColumn id="9" name="Shelf" dataDxfId="13"/>
+    <tableColumn id="5" name="LOC" dataDxfId="12"/>
+    <tableColumn id="7" name="Manually Add to GoodReads" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1827,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.59765625" defaultRowHeight="14.25"/>
@@ -3229,6 +3485,262 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="33.59765625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="33.59765625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.4" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1949</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1958</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1966</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1957</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1975</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5"/>
+      <c r="F7" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5"/>
+      <c r="F8" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5"/>
+      <c r="F9" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5"/>
+      <c r="F10" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5"/>
+      <c r="F11" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5"/>
+      <c r="F12" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5"/>
+      <c r="F13" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5"/>
+      <c r="F14" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5"/>
+      <c r="F15" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5"/>
+      <c r="F16" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5"/>
+      <c r="F17" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5"/>
+      <c r="F18" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5"/>
+      <c r="F19" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5"/>
+      <c r="F20" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5"/>
+      <c r="F21" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G163"/>
   <sheetViews>
